--- a/src/test/resources/testdata/TOMHO.xlsx
+++ b/src/test/resources/testdata/TOMHO.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE0ED10-A7C9-46D0-B3A5-51925A71B88A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AB90F5-DBD6-4879-B3C7-ADBB9CA0119E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>33881</t>
   </si>
   <si>
-    <t>07302023</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>9 to 12 Months</t>
+  </si>
+  <si>
+    <t>08302023</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,22 +504,22 @@
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="5">
         <v>2022</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -542,22 +542,22 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="L3" s="5">
         <v>2022</v>

--- a/src/test/resources/testdata/TOMHO.xlsx
+++ b/src/test/resources/testdata/TOMHO.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AB90F5-DBD6-4879-B3C7-ADBB9CA0119E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0F6E67-1807-4502-BD66-8E9D8134AD15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>FirstName</t>
   </si>
@@ -100,7 +100,22 @@
     <t>9 to 12 Months</t>
   </si>
   <si>
-    <t>08302023</t>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>ivans-test</t>
+  </si>
+  <si>
+    <t>ivans-test2</t>
+  </si>
+  <si>
+    <t>01182024</t>
+  </si>
+  <si>
+    <t>ivans-test3</t>
+  </si>
+  <si>
+    <t>ivans-test4</t>
   </si>
 </sst>
 </file>
@@ -438,18 +453,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +503,11 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -504,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -524,8 +544,11 @@
       <c r="L2" s="5">
         <v>2022</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -542,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -561,6 +584,91 @@
       </c>
       <c r="L3" s="5">
         <v>2022</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
